--- a/TaskTracking.xlsx
+++ b/TaskTracking.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\985970\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>Ding</t>
   </si>
   <si>
-    <t>Luat</t>
+    <t>Luit</t>
   </si>
   <si>
     <t>Kevin</t>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,36 +250,8 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{11C147F9-33B2-4192-8776-8030D67AB17B}">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -612,39 +584,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N67"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="2"/>
-    <col min="7" max="7" width="14.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="8.875" style="2"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -664,12 +635,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>29</v>
+        <f>SUM(D5:D20)</f>
+        <v>3.75</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(H5:H20)</f>
@@ -680,12 +652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -693,14 +665,13 @@
       <c r="K5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="2"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
@@ -708,9 +679,8 @@
       <c r="K6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -723,14 +693,13 @@
       <c r="K7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -738,9 +707,8 @@
       <c r="K8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -753,14 +721,13 @@
       <c r="K9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
@@ -768,17 +735,16 @@
       <c r="K10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
@@ -786,14 +752,13 @@
       <c r="K12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
@@ -801,14 +766,13 @@
       <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -816,14 +780,13 @@
       <c r="K14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
@@ -831,14 +794,13 @@
       <c r="K15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
@@ -846,14 +808,13 @@
       <c r="K16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
@@ -861,14 +822,13 @@
       <c r="K17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
@@ -876,14 +836,13 @@
       <c r="K18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -891,15 +850,14 @@
       <c r="K19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="9">
         <f>SUM(D22:D28)</f>
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H21" s="8">
         <f>SUM(H22:H28)</f>
@@ -910,61 +868,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="6">
         <f>SUM(D30:D33)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29" s="5">
         <f>SUM(H30:H33)</f>
@@ -975,23 +915,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
@@ -1005,7 +939,7 @@
       </c>
       <c r="D34" s="6">
         <f>SUM(D35:D39)</f>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H34" s="5">
         <f>SUM(H35:H39)</f>
@@ -1020,32 +954,20 @@
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="D36" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1055,7 +977,7 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D41:D44)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H40" s="5">
         <f>SUM(H41:H44)</f>
@@ -1075,17 +997,11 @@
       <c r="A42" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="2">
-        <v>2</v>
-      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="2">
-        <v>1</v>
-      </c>
     </row>
     <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -1210,7 +1126,7 @@
       </c>
       <c r="D67" s="6">
         <f>SUM(D4,D21,D29,D34,D40,D45,D48,D51,D54)</f>
-        <v>46</v>
+        <v>3.75</v>
       </c>
       <c r="H67" s="5">
         <f>SUM(H4,H21,H29,H34,H40,H45,H48,H51,H54)</f>

--- a/TaskTracking.xlsx
+++ b/TaskTracking.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\985970\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\985970\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4455" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
     <t>Ding</t>
   </si>
   <si>
-    <t>Luit</t>
+    <t>Luat</t>
   </si>
   <si>
     <t>Kevin</t>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -250,8 +250,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{11C147F9-33B2-4192-8776-8030D67AB17B}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -584,38 +612,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="1" max="1" width="30.25" customWidth="1"/>
     <col min="3" max="3" width="13.125" customWidth="1"/>
     <col min="4" max="4" width="8.875" style="2"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1"/>
     <col min="10" max="10" width="10.75" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -635,13 +664,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <f>SUM(D5:D20)</f>
-        <v>3.75</v>
+        <v>29</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(H5:H20)</f>
@@ -649,38 +677,40 @@
       </c>
       <c r="K4" s="1">
         <f>SUM(K5:K20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -691,24 +721,26 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -719,145 +751,159 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="H10" s="2">
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H12" s="2">
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" s="2">
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2">
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" s="2">
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2">
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="2">
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="9">
         <f>SUM(D22:D28)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H21" s="8">
         <f>SUM(H22:H28)</f>
@@ -865,46 +911,82 @@
       </c>
       <c r="K21" s="8">
         <f>SUM(K22:K28)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="6">
         <f>SUM(D30:D33)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H29" s="5">
         <f>SUM(H30:H33)</f>
@@ -912,22 +994,37 @@
       </c>
       <c r="K29" s="5">
         <f>SUM(K30:K33)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -939,7 +1036,7 @@
       </c>
       <c r="D34" s="6">
         <f>SUM(D35:D39)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H34" s="5">
         <f>SUM(H35:H39)</f>
@@ -947,27 +1044,51 @@
       </c>
       <c r="K34" s="5">
         <f>SUM(K35:K39)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>23</v>
       </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="K36" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="K37" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="K38" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -977,7 +1098,7 @@
       </c>
       <c r="D40" s="6">
         <f>SUM(D41:D44)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H40" s="5">
         <f>SUM(H41:H44)</f>
@@ -985,23 +1106,38 @@
       </c>
       <c r="K40" s="5">
         <f>SUM(K41:K44)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
+      <c r="K41" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>26</v>
       </c>
+      <c r="D42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>27</v>
       </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="K43" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
@@ -1017,7 +1153,12 @@
       </c>
       <c r="K45" s="8">
         <f>SUM(K46:K47)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K46" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1026,7 +1167,7 @@
       </c>
       <c r="D48" s="6">
         <f>SUM(D49:D50)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H48" s="5">
         <f>SUM(H49:H50)</f>
@@ -1034,7 +1175,15 @@
       </c>
       <c r="K48" s="5">
         <f>SUM(K49:K50)</f>
-        <v>0</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1043,7 +1192,7 @@
       </c>
       <c r="D51" s="6">
         <f>SUM(D52:D53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" s="5">
         <f>SUM(H52:H53)</f>
@@ -1051,7 +1200,15 @@
       </c>
       <c r="K51" s="5">
         <f>SUM(K52:K53)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="K52">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1060,7 +1217,7 @@
       </c>
       <c r="D54" s="6">
         <f>SUM(D55:D56)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" s="5">
         <f>SUM(H55:H56)</f>
@@ -1068,7 +1225,15 @@
       </c>
       <c r="K54" s="5">
         <f>SUM(K55:K56)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1077,15 +1242,26 @@
       </c>
       <c r="D57" s="6">
         <f>SUM(D58:D61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="5">
         <f>SUM(H58:H61)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K57" s="5">
         <f>SUM(K58:K61)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D58" s="2">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -1093,32 +1269,50 @@
         <v>43</v>
       </c>
       <c r="D62" s="6">
-        <f>SUM(63:66)</f>
-        <v>0</v>
+        <f>SUM(D63:D66)</f>
+        <v>6</v>
       </c>
       <c r="H62" s="5">
-        <f>SUM(63:66)</f>
+        <f>SUM(H63:H66)</f>
         <v>0</v>
       </c>
       <c r="K62" s="5">
-        <f>SUM(63:66)</f>
-        <v>0</v>
+        <f>SUM(D63:D66)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
@@ -1126,7 +1320,7 @@
       </c>
       <c r="D67" s="6">
         <f>SUM(D4,D21,D29,D34,D40,D45,D48,D51,D54)</f>
-        <v>3.75</v>
+        <v>50</v>
       </c>
       <c r="H67" s="5">
         <f>SUM(H4,H21,H29,H34,H40,H45,H48,H51,H54)</f>
@@ -1134,7 +1328,7 @@
       </c>
       <c r="K67" s="5">
         <f>SUM(K4,K21,K29,K34,K40,K45,K48,K51,K54)</f>
-        <v>0</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/TaskTracking.xlsx
+++ b/TaskTracking.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28810"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\985970\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/luatnguyen/GoogleDrive/WAA/Project/PetsMart/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -173,7 +181,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -275,7 +283,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{11C147F9-33B2-4192-8776-8030D67AB17B}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -337,9 +345,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -367,31 +375,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -419,23 +410,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -611,29 +585,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="8.875" style="2"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
-    <col min="10" max="10" width="10.75" customWidth="1"/>
-    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="1" max="1" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>48</v>
       </c>
@@ -644,7 +618,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
         <v>20</v>
       </c>
@@ -664,7 +638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -673,14 +647,14 @@
       </c>
       <c r="H4" s="1">
         <f>SUM(H5:H20)</f>
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="K4" s="1">
         <f>SUM(K5:K20)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
@@ -695,7 +669,7 @@
       </c>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>2</v>
       </c>
@@ -703,14 +677,14 @@
         <v>1</v>
       </c>
       <c r="H6" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6" s="2">
         <v>2</v>
       </c>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
@@ -718,14 +692,14 @@
         <v>1</v>
       </c>
       <c r="H7" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K7" s="2">
         <v>3</v>
       </c>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
@@ -733,14 +707,14 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K8" s="2">
         <v>2</v>
       </c>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
@@ -748,14 +722,14 @@
         <v>1</v>
       </c>
       <c r="H9" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K9" s="2">
         <v>5</v>
       </c>
       <c r="N9" s="2"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -763,18 +737,18 @@
         <v>5</v>
       </c>
       <c r="H10" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K10" s="2">
         <v>12</v>
       </c>
       <c r="N10" s="2"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="K11" s="2"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>40</v>
       </c>
@@ -782,14 +756,14 @@
         <v>3</v>
       </c>
       <c r="H12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>1</v>
       </c>
       <c r="N12" s="2"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>39</v>
       </c>
@@ -797,14 +771,14 @@
         <v>2</v>
       </c>
       <c r="H13" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" s="2">
         <v>1</v>
       </c>
       <c r="N13" s="2"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>5</v>
       </c>
@@ -812,14 +786,14 @@
         <v>3</v>
       </c>
       <c r="H14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2">
         <v>2</v>
       </c>
       <c r="N14" s="2"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>6</v>
       </c>
@@ -827,14 +801,14 @@
         <v>6</v>
       </c>
       <c r="H15" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K15" s="2">
         <v>2</v>
       </c>
       <c r="N15" s="2"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>10</v>
       </c>
@@ -842,14 +816,14 @@
         <v>2</v>
       </c>
       <c r="H16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <v>3</v>
       </c>
       <c r="N16" s="2"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>11</v>
       </c>
@@ -857,14 +831,14 @@
         <v>1</v>
       </c>
       <c r="H17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
         <v>2</v>
       </c>
       <c r="N17" s="2"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -872,14 +846,14 @@
         <v>1</v>
       </c>
       <c r="H18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <v>2</v>
       </c>
       <c r="N18" s="2"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>38</v>
       </c>
@@ -894,10 +868,10 @@
       </c>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>12</v>
       </c>
@@ -907,80 +881,98 @@
       </c>
       <c r="H21" s="8">
         <f>SUM(H22:H28)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K21" s="8">
         <f>SUM(K22:K28)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="2">
         <v>1</v>
       </c>
+      <c r="H22" s="2">
+        <v>4</v>
+      </c>
       <c r="K22" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
       <c r="K23" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="D24" s="2">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
       <c r="K24" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
       <c r="K25" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
       <c r="D26" s="2">
         <v>1</v>
       </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
       <c r="K26" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D27" s="2">
         <v>2</v>
       </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
       <c r="K27" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>28</v>
       </c>
@@ -990,47 +982,56 @@
       </c>
       <c r="H29" s="5">
         <f>SUM(H30:H33)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K29" s="5">
         <f>SUM(K30:K33)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D30" s="2">
         <v>1</v>
       </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
       <c r="K30" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="2">
         <v>1</v>
       </c>
+      <c r="H31">
+        <v>5</v>
+      </c>
       <c r="K31" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
       <c r="K32" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
     </row>
-    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>16</v>
       </c>
@@ -1040,59 +1041,71 @@
       </c>
       <c r="H34" s="5">
         <f>SUM(H35:H39)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K34" s="5">
         <f>SUM(K35:K39)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>22</v>
       </c>
       <c r="D35" s="2">
         <v>1</v>
       </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
       <c r="K35" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
       <c r="D36" s="2">
         <v>1</v>
       </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
       <c r="K36" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D37" s="2">
         <v>1</v>
       </c>
+      <c r="H37" s="2">
+        <v>1</v>
+      </c>
       <c r="K37" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D38" s="2">
         <v>1</v>
       </c>
+      <c r="H38" s="2">
+        <v>1</v>
+      </c>
       <c r="K38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="40" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>17</v>
       </c>
@@ -1102,33 +1115,39 @@
       </c>
       <c r="H40" s="5">
         <f>SUM(H41:H44)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K40" s="5">
         <f>SUM(K41:K44)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>16</v>
       </c>
+      <c r="H41" s="2">
+        <v>1</v>
+      </c>
       <c r="K41" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>26</v>
       </c>
       <c r="D42" s="2">
         <v>2</v>
       </c>
+      <c r="H42" s="2">
+        <v>1</v>
+      </c>
       <c r="K42" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>27</v>
       </c>
@@ -1139,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>29</v>
       </c>
@@ -1149,19 +1168,22 @@
       </c>
       <c r="H45" s="8">
         <f>SUM(H46:H47)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="8">
         <f>SUM(K46:K47)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H46">
+        <v>1</v>
+      </c>
       <c r="K46" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
         <v>18</v>
       </c>
@@ -1171,22 +1193,25 @@
       </c>
       <c r="H48" s="5">
         <f>SUM(H49:H50)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K48" s="5">
         <f>SUM(K49:K50)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D49" s="2">
         <v>2</v>
       </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
       <c r="K49">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
         <v>19</v>
       </c>
@@ -1196,22 +1221,25 @@
       </c>
       <c r="H51" s="5">
         <f>SUM(H52:H53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="5">
         <f>SUM(K52:K53)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D52" s="2">
         <v>1</v>
       </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
       <c r="K52">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
         <v>36</v>
       </c>
@@ -1221,22 +1249,25 @@
       </c>
       <c r="H54" s="5">
         <f>SUM(H55:H56)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="5">
         <f>SUM(K55:K56)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D55" s="2">
         <v>1</v>
       </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
       <c r="K55">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8" t="s">
         <v>42</v>
       </c>
@@ -1253,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="D58" s="2">
         <v>1</v>
       </c>
@@ -1264,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
         <v>43</v>
       </c>
@@ -1274,47 +1305,56 @@
       </c>
       <c r="H62" s="5">
         <f>SUM(H63:H66)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K62" s="5">
         <f>SUM(D63:D66)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D63" s="2">
         <v>2</v>
       </c>
+      <c r="H63">
+        <v>2</v>
+      </c>
       <c r="K63">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="2">
         <v>2</v>
       </c>
+      <c r="H64">
+        <v>2</v>
+      </c>
       <c r="K64">
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D65" s="2">
         <v>2</v>
       </c>
+      <c r="H65">
+        <v>2</v>
+      </c>
       <c r="K65">
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
         <v>41</v>
       </c>
@@ -1324,7 +1364,7 @@
       </c>
       <c r="H67" s="5">
         <f>SUM(H4,H21,H29,H34,H40,H45,H48,H51,H54)</f>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="K67" s="5">
         <f>SUM(K4,K21,K29,K34,K40,K45,K48,K51,K54)</f>
@@ -1338,24 +1378,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
